--- a/Scrum/Retrospective/Retrospective of Week 4.xlsx
+++ b/Scrum/Retrospective/Retrospective of Week 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57414901-9C6F-4C45-9AFC-6D54E7646F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F7D918-22A7-4ECE-AA76-A61702241FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
